--- a/游戏开发文档/技能数值设定.xlsx
+++ b/游戏开发文档/技能数值设定.xlsx
@@ -2627,44 +2627,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2920,920 +2924,920 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:O8"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="113.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="113.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="2" t="n">
         <f aca="false">$F2/$C2/10</f>
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="4" t="n">
         <f aca="false">$E2*$C2*0.8*$D2</f>
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="2" t="n">
         <f aca="false">3*(1+$J2/3)*$N2</f>
         <v>48</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="4" t="n">
         <f aca="false">$K2/($K2+$I2)*$N2+$I2/($I2+$K2)*$O2</f>
         <v>23</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <f aca="false">K2</f>
         <v>5</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <f aca="false">N2</f>
         <v>8</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <f aca="false">3*(1+$Q2/3)*$N2</f>
         <v>64</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="4" t="n">
         <f aca="false">$R2/($R2+$Q2)*$S2+$Q2/($Q2+$R2)*$T2</f>
         <v>36</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <f aca="false">$P2+$U2+$B2</f>
         <v>64</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="2" t="n">
         <f aca="false">$F3/$C3/10</f>
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="4" t="n">
         <f aca="false">$E3*$C3*0.8*$D3</f>
         <v>6.4</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="4" t="n">
         <f aca="false">$H3*$D3/$J3</f>
         <v>50</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <f aca="false">$K3/($K3+$I3)*$N3+$I3/($I3+$K3)*$O3</f>
         <v>13.6666666666667</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <f aca="false">I3</f>
         <v>2</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="4" t="n">
         <f aca="false">K3</f>
         <v>10</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <f aca="false">$E3*$C3*0.8*3</f>
         <v>9.6</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <f aca="false">$H3*3/$J3</f>
         <v>75</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="4" t="n">
         <f aca="false">$R3/($R3+$Q3)*$S3+$Q3/($Q3+$R3)*$T3</f>
         <v>20.5</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="4" t="n">
         <f aca="false">$P3+$U3+$B3</f>
         <v>39.1666666666667</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <f aca="false">N4*J4</f>
         <v>60</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">$F4/$C4/10</f>
         <v>2</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="4" t="n">
         <f aca="false">$E4*$C4*0.8*$D4</f>
         <v>12</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="4" t="n">
         <f aca="false">$H4*$D4/$J4</f>
         <v>12</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <f aca="false">$K4/($K4+$I4)*$N4+$I4/($I4+$K4)*$O4</f>
         <v>12</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <f aca="false">I4</f>
         <v>5</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <f aca="false">K4/2</f>
         <v>1</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <f aca="false">N4*2</f>
         <v>24</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <f aca="false">$O4*2</f>
         <v>24</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="4" t="n">
         <f aca="false">$R4/($R4+$Q4)*$S4+$Q4/($Q4+$R4)*$T4</f>
         <v>24</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="4" t="n">
         <f aca="false">$P4+$U4+$B4</f>
         <v>39</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="5" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="2" t="n">
         <f aca="false">$F5/$C5/10</f>
         <v>5</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="4" t="n">
         <f aca="false">$E5*$C5*0.8*$D5</f>
         <v>12.8</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="2" t="n">
         <f aca="false">3*(1+$J5/3)*$N5</f>
         <v>64</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="4" t="n">
         <f aca="false">$K5/($K5+$I5)*$N5+$I5/($I5+$K5)*$O5</f>
         <v>27.4285714285714</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="4" t="n">
         <f aca="false">K5</f>
         <v>5</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="4" t="n">
         <f aca="false">N5</f>
         <v>12.8</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="T5" s="4" t="n">
         <f aca="false">3*(1+$Q5/3)*$N5</f>
         <v>89.6</v>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="4" t="n">
         <f aca="false">$R5/($R5+$Q5)*$S5+$Q5/($Q5+$R5)*$T5</f>
         <v>46.9333333333333</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="4" t="n">
         <f aca="false">$P5+$U5+$B5</f>
         <v>77.3619047619048</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="2" t="n">
         <f aca="false">$F6/$C6/10</f>
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="4" t="n">
         <f aca="false">$E6*$C6*0.8*$D6</f>
         <v>4.8</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="2" t="n">
         <f aca="false">3*(1+$J6/3)*$N6</f>
         <v>28.8</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="4" t="n">
         <f aca="false">$K6/($K6+$I6)*$N6+$I6/($I6+$K6)*$O6</f>
         <v>16.8</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q6" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="4" t="n">
         <f aca="false">K6</f>
         <v>5</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="4" t="n">
         <f aca="false">N6</f>
         <v>4.8</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="T6" s="4" t="n">
         <f aca="false">3*(1+5/3)*$N6</f>
         <v>38.4</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="4" t="n">
         <f aca="false">$R6/($R6+$Q6)*$S6+$Q6/($Q6+$R6)*$T6</f>
         <v>24.4</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="4" t="n">
         <f aca="false">$P6+$U6+$B6</f>
         <v>46.2</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="5" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="2" t="n">
         <f aca="false">$F7/$C7/10</f>
         <v>4</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="4" t="n">
         <f aca="false">$E7*$C7*0.8*$D7</f>
         <v>8</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="4" t="n">
         <f aca="false">$H7*$D7/$J7</f>
         <v>50</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="4" t="n">
         <f aca="false">$K7/($K7+$I7)*$N7+$I7/($I7+$K7)*$O7</f>
         <v>22</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="4" t="n">
         <f aca="false">I7</f>
         <v>2</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="4" t="n">
         <f aca="false">K7/2</f>
         <v>2</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="4" t="n">
         <f aca="false">N7*2</f>
         <v>16</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="4" t="n">
         <f aca="false">$O7</f>
         <v>50</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="4" t="n">
         <f aca="false">$R7/($R7+$Q7)*$S7+$Q7/($Q7+$R7)*$T7</f>
         <v>33</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="4" t="n">
         <f aca="false">$P7+$U7+$B7</f>
         <v>65</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="5" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="7" t="n">
         <f aca="false">$F8/$C8/10</f>
         <v>8</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="6" t="n">
         <f aca="false">$E8*$C8*0.8*$D8</f>
         <v>4</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <f aca="false">3*(1+$J8/3)*$N8</f>
         <v>24</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="4" t="n">
         <f aca="false">$K8/($K8+$I8)*$N8+$I8/($I8+$K8)*$O8</f>
         <v>9.45454545454545</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="4" t="n">
         <f aca="false">K8</f>
         <v>8</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="4" t="n">
         <f aca="false">N8</f>
         <v>4</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="T8" s="4" t="n">
         <f aca="false">3*(1+5/3)*$N8</f>
         <v>32</v>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="4" t="n">
         <f aca="false">$R8/($R8+$Q8)*$S8+$Q8/($Q8+$R8)*$T8</f>
         <v>14.7692307692308</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="4" t="n">
         <f aca="false">$P8+$U8+$B8</f>
         <v>29.2237762237762</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="5" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">$F9/$C9/10</f>
         <v>6</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="4" t="n">
         <f aca="false">$E9*$C9*0.8*$D9</f>
         <v>19.2</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="2" t="n">
         <f aca="false">3*(1+$J9/3)*$N9</f>
         <v>76.8</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <f aca="false">$K9/($K9+$I9)*$N9+$I9/($I9+$K9)*$O9</f>
         <v>27.4285714285714</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <f aca="false">K9</f>
         <v>6</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <f aca="false">N9</f>
         <v>19.2</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <f aca="false">3*(1+$Q9/3)*$N9</f>
         <v>96</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="4" t="n">
         <f aca="false">$R9/($R9+$Q9)*$S9+$Q9/($Q9+$R9)*$T9</f>
         <v>38.4</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="4" t="n">
         <f aca="false">$P9+$U9+$B9</f>
         <v>70.8285714285714</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="5" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">3*N10*J10</f>
         <v>180</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">$F10/$C10/10</f>
         <v>2</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="4" t="n">
         <f aca="false">$E10*$C10*0.8*$D10</f>
         <v>12</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="4" t="n">
         <f aca="false">$H10*$D10/$J10</f>
         <v>36</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="4" t="n">
         <f aca="false">$K10/($K10+$I10)*$N10+$I10/($I10+$K10)*$O10</f>
         <v>29.1428571428571</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="4" t="n">
         <f aca="false">K10</f>
         <v>2</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="4" t="n">
         <f aca="false">N10</f>
         <v>12</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="4" t="n">
         <f aca="false">3*C10*E10*Q10*D10/Q10</f>
         <v>45</v>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="U10" s="4" t="n">
         <f aca="false">$R10/($R10+$Q10)*$S10+$Q10/($Q10+$R10)*$T10</f>
         <v>38.4</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="4" t="n">
         <f aca="false">$P10+$U10+$B10</f>
         <v>72.5428571428571</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="5" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <f aca="false">3*10*J11</f>
         <v>150</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">$F11/$C11/10</f>
         <v>6</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="4" t="n">
         <f aca="false">$E11*$C11*0.8*$D11</f>
         <v>4</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="4" t="n">
         <f aca="false">$H11*$D11/$J11</f>
         <v>30</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <f aca="false">$K11/($K11+$I11)*$N11+$I11/($I11+$K11)*$O11</f>
         <v>15.8181818181818</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <f aca="false">K11</f>
         <v>6</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <f aca="false">N11</f>
         <v>4</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <f aca="false">3*10*Q11/Q11*D11</f>
         <v>30</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="4" t="n">
         <f aca="false">$R11/($R11+$Q11)*$S11+$Q11/($Q11+$R11)*$T11</f>
         <v>18.8571428571429</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <f aca="false">$P11+$U11+$B11</f>
         <v>39.6753246753247</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="5" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3857,198 +3861,198 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A8:O8 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="11.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="55.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="55.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="n">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4069,91 +4073,91 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="A8:O8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4176,7 +4180,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="A8:O8 F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/游戏开发文档/技能数值设定.xlsx
+++ b/游戏开发文档/技能数值设定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_04EB930642ED307B6A3D491B17E12CE255006676" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_04EB930642ED307B6A3D491B17E12CE255006676" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{529494EE-1B9E-4F75-97F6-1D0597D67826}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="1750" windowWidth="19200" windowHeight="11170" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="1" r:id="rId1"/>
@@ -2224,7 +2224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>名字</t>
   </si>
@@ -2532,6 +2532,10 @@
   </si>
   <si>
     <t>先后放置两道传送门，从第一道门进入的敌人会从第二道门出现</t>
+  </si>
+  <si>
+    <t>夜间加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2906,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3836,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3864,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>60</v>

--- a/游戏开发文档/技能数值设定.xlsx
+++ b/游戏开发文档/技能数值设定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klin\OneDrive\Desktop\workspace\game_design\project2_Demo\Time_Guardian\Time Guardian\游戏开发文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_04EB930642ED307B6A3D491B17E12CE255006676" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{529494EE-1B9E-4F75-97F6-1D0597D67826}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8973F5-0798-4AB7-B716-A3336D2A2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1750" windowWidth="19200" windowHeight="11170" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2090" windowWidth="19200" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="1" r:id="rId1"/>
@@ -2910,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3840,7 +3840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
